--- a/docs/StructureDefinition-OrigenDiscapacidad.xlsx
+++ b/docs/StructureDefinition-OrigenDiscapacidad.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-10T15:46:58-04:00</t>
+    <t>2023-09-04T11:09:02-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -149,6 +149,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -192,10 +196,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -883,7 +883,7 @@
         <v>42</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>38</v>
@@ -891,10 +891,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -905,7 +905,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -917,13 +917,13 @@
         <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -974,13 +974,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -989,15 +989,15 @@
         <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1020,13 +1020,13 @@
         <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1065,19 +1065,19 @@
         <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
@@ -1089,7 +1089,7 @@
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -1108,10 +1108,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>59</v>
@@ -1185,10 +1185,10 @@
         <v>58</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
@@ -1216,7 +1216,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>59</v>
@@ -1291,7 +1291,7 @@
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
@@ -1319,7 +1319,7 @@
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -1331,13 +1331,13 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1388,13 +1388,13 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
@@ -1403,7 +1403,7 @@
         <v>38</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" hidden="true">
@@ -1434,7 +1434,7 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>72</v>
@@ -1481,19 +1481,19 @@
         <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -1505,10 +1505,10 @@
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" hidden="true">
@@ -1634,7 +1634,7 @@
         <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -1646,13 +1646,13 @@
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1703,13 +1703,13 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>38</v>
@@ -1718,7 +1718,7 @@
         <v>38</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" hidden="true">
@@ -1749,7 +1749,7 @@
         <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>72</v>
@@ -1796,19 +1796,19 @@
         <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -1820,10 +1820,10 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" hidden="true">
@@ -1839,10 +1839,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>59</v>
@@ -1921,7 +1921,7 @@
         <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>38</v>
@@ -1949,7 +1949,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
@@ -1961,7 +1961,7 @@
         <v>59</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>93</v>
@@ -2026,7 +2026,7 @@
         <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
@@ -2051,10 +2051,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>59</v>
@@ -2129,7 +2129,7 @@
         <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
@@ -2157,7 +2157,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>59</v>
@@ -2169,7 +2169,7 @@
         <v>59</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>108</v>
@@ -2234,7 +2234,7 @@
         <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
@@ -2262,7 +2262,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -2341,7 +2341,7 @@
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
@@ -2369,7 +2369,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -2381,7 +2381,7 @@
         <v>59</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>122</v>
@@ -2448,7 +2448,7 @@
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
